--- a/Variable_Table.xlsx
+++ b/Variable_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>U_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admins:　８</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,10 +182,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -466,13 +490,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -480,7 +504,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -488,42 +512,42 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -532,11 +556,11 @@
       <c r="B11">
         <v>30</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -545,17 +569,17 @@
       <c r="B12">
         <v>31</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -566,10 +590,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -580,10 +604,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -610,10 +634,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -639,8 +663,55 @@
         <v>73</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D7:H12"/>
